--- a/Project Scheduling/Project Schedule.xlsx
+++ b/Project Scheduling/Project Schedule.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\ESE\3\Project\Robot-Explorer-EREEEL-Documentation-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\ESE\3\Project\Robot-Explorer-EREEEL-Documentation-\Project Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Status">Sheet3!$A$1:$A$4</definedName>
+    <definedName name="Status2">Sheet3!$A$1:$A$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
   <si>
     <t>Week Ending</t>
   </si>
@@ -63,9 +68,6 @@
   </si>
   <si>
     <t>3. Give a tour of the OS to the other group members.  Explain the example code functionality.</t>
-  </si>
-  <si>
-    <t>WAITING ON BILL'S DOCUMENT</t>
   </si>
   <si>
     <t>2. Complete the specification.</t>
@@ -179,9 +181,6 @@
     <t>Initialize RS-232 on the Pi and get communication between it and the platform controller working.</t>
   </si>
   <si>
-    <t>Investigate the need for threading in the supervisory Linux program?</t>
-  </si>
-  <si>
     <t>Finalize code for the selected control method in the supervisory control program.  Implement threading if you have chosen to do so.</t>
   </si>
   <si>
@@ -243,12 +242,143 @@
   <si>
     <t>Last updated: October 4, 2016</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Identify the name of the device (i.e. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/dev/tty___</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">), using the USB-DB9 converter.   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Decide on one of two options: (a) write a new program to communicate with the port, or (b) try to recycle the Linux Supervisor port communication code to work on the Pi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Using a loopback connecter from semester 3, write code to communicate with the port. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Integrate with the platform controller: ensure reliable communications between the modules. </t>
+  </si>
+  <si>
+    <t>1. Create a pros/cons list of threading vs single thread program.  Is the response of the system significantly affected if we only use a single thread?</t>
+  </si>
+  <si>
+    <t>2. If threading is deemed favourable or necessary, begin implementing threading.  Ask Peter for a re-cap (or go back to old notes) on the common pitfalls and mistakes made when threading they can be avoided.</t>
+  </si>
+  <si>
+    <t>1. Raspberry Pi running Raspbian</t>
+  </si>
+  <si>
+    <t>2. Load test code onto the pi using the micro SD card</t>
+  </si>
+  <si>
+    <t>3. Connect host computer to local area network via routher provided by Peter + Bill</t>
+  </si>
+  <si>
+    <t>4. Using socket communication send and echo back a single char</t>
+  </si>
+  <si>
+    <t>5. Send and echo back strings</t>
+  </si>
+  <si>
+    <t>1. Integrate Encoders into project supervisor</t>
+  </si>
+  <si>
+    <t>2. Integrate PID control</t>
+  </si>
+  <si>
+    <t>3. Intergrate Joystick/ArrowKey control …… Create thread</t>
+  </si>
+  <si>
+    <t>4. Test and verify functionality</t>
+  </si>
+  <si>
+    <t>1. Pick desired sensors to add</t>
+  </si>
+  <si>
+    <t>2. Create protoboard/PCB for signal conditioning circuit</t>
+  </si>
+  <si>
+    <t>3. Mount enironmental sensors to the robot</t>
+  </si>
+  <si>
+    <t>4. Test and verify functionality of sensors</t>
+  </si>
+  <si>
+    <t>1. Ensure encoders working with engineering units</t>
+  </si>
+  <si>
+    <t>2. Determine method of importing PID control into the system (writing code manually, using SimuLink)</t>
+  </si>
+  <si>
+    <t>3. Test and adjust PID control on the robot in an individual project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Integrate with the main project code. </t>
+  </si>
+  <si>
+    <t>1. Get Raspbian OS onto the raspberry Pi</t>
+  </si>
+  <si>
+    <t>2. Install Eclipse and C/C++ extension</t>
+  </si>
+  <si>
+    <t>3. Check Wi-Fi internet connection on the Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Prepare a new communication protocol based on the selected control method.  </t>
+  </si>
+  <si>
+    <t>2. Implement the new communication protocol into the existing program.</t>
+  </si>
+  <si>
+    <t>Investigate the need for threading in the supervisory Linux program</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>On Schedule</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Pending…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +427,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +487,58 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF4FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -337,15 +546,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -355,114 +589,312 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFECF4FA"/>
+      <color rgb="FFFBA7A7"/>
+      <color rgb="FF0C720E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -737,452 +1169,873 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="43" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>42650</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>42657</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="35" t="s">
+      <c r="F35" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>42650</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="F36" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>42664</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="8" t="s">
+      <c r="D47" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="23"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="23"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="23"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
+        <v>42671</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>42657</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="D56" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>42664</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="D57" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="35"/>
+      <c r="F57" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
+        <v>42678</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
-        <v>42671</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="21" t="s">
+      <c r="D60" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
-        <v>42678</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="22"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="43" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="35">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="B26:B40"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="C51:C54"/>
     <mergeCell ref="A7:A24"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A32:A34"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C6:D6"/>
@@ -1190,11 +2043,40 @@
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B7:B24"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="A42:A54"/>
   </mergeCells>
+  <conditionalFormatting sqref="F26:F40 F59:F1048576 F56:F57 F42:F54 F5:F24">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="On Schedule">
+      <formula>NOT(ISERROR(SEARCH("On Schedule",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59:F1048576 F56:F57 F42:F54 F5:F40">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F59:F1048576 F56:F57 F42:F54 F5:F40">
+      <formula1>Status2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Project Scheduling/Project Schedule.xlsx
+++ b/Project Scheduling/Project Schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>Week Ending</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Subtasks</t>
-  </si>
-  <si>
-    <t>Development</t>
   </si>
   <si>
     <t>PROJECT SCHEDULE</t>
@@ -240,9 +237,6 @@
     <t>Kevin Hartwig, James Sonnenberg and Ovi Ofrim</t>
   </si>
   <si>
-    <t>Last updated: October 4, 2016</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. Identify the name of the device (i.e. </t>
     </r>
@@ -272,9 +266,6 @@
     <t xml:space="preserve">2. Decide on one of two options: (a) write a new program to communicate with the port, or (b) try to recycle the Linux Supervisor port communication code to work on the Pi. </t>
   </si>
   <si>
-    <t xml:space="preserve">3. Using a loopback connecter from semester 3, write code to communicate with the port. </t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Integrate with the platform controller: ensure reliable communications between the modules. </t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>2. Load test code onto the pi using the micro SD card</t>
   </si>
   <si>
-    <t>3. Connect host computer to local area network via routher provided by Peter + Bill</t>
-  </si>
-  <si>
     <t>4. Using socket communication send and echo back a single char</t>
   </si>
   <si>
@@ -341,9 +329,6 @@
     <t>2. Install Eclipse and C/C++ extension</t>
   </si>
   <si>
-    <t>3. Check Wi-Fi internet connection on the Pi</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Prepare a new communication protocol based on the selected control method.  </t>
   </si>
   <si>
@@ -372,6 +357,36 @@
   </si>
   <si>
     <t>Pending…</t>
+  </si>
+  <si>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Ovi</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>3. Connect host computer to local area network via router provided by Peter + Bill</t>
+  </si>
+  <si>
+    <t>3. Start working on communications between Pi and Laptop over Wi-Fi link</t>
+  </si>
+  <si>
+    <t>Last updated: October 13, 2016</t>
+  </si>
+  <si>
+    <t>3. (a) Simulate communication using real term.                             (b) Communicate between the Pi and the Axman.</t>
   </si>
 </sst>
 </file>
@@ -578,7 +593,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -643,56 +658,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3"/>
@@ -701,15 +677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -725,17 +692,86 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -745,7 +781,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="5">
     <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
@@ -793,96 +829,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFBA7A7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1181,28 +1127,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>84</v>
+      <c r="A1" s="29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>81</v>
+      <c r="A2" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>82</v>
+      <c r="A3" s="27" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>83</v>
+      <c r="A4" s="28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1212,818 +1158,952 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="4" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="43" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="27.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="30" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+    </row>
+    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="53">
+        <v>42650</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>42650</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+    <row r="12" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="30"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="E19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="F21" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
+      <c r="F22" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="15"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="F25" s="42"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="53">
         <v>42657</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="D30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
+      <c r="F30" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
+        <v>71</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="53"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="34" t="s">
+      <c r="D35" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="53"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27" t="s">
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="53"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="9" t="s">
+      <c r="D39" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="9" t="s">
+      <c r="F39" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="53"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="15"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+      <c r="F41" s="42"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
         <v>42664</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="47"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="47"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D47" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="43"/>
+      <c r="G48" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="43"/>
+      <c r="G49" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="35" t="s">
+      <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="35" t="s">
+      <c r="G51" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="35" t="s">
+      <c r="G52" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="35" t="s">
+      <c r="G53" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="47"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>
       <c r="D55" s="15"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="F55" s="42"/>
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="47">
         <v>42671</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>45</v>
+      <c r="B56" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="25"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="17"/>
       <c r="D58" s="15"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
+      <c r="F58" s="42"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="47">
         <v>42678</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>45</v>
+      <c r="B59" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D60" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="35"/>
-      <c r="F60" s="43" t="s">
-        <v>84</v>
+      <c r="E60" s="25"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="D35:D38"/>
-    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A7:A24"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="A26:A40"/>
     <mergeCell ref="B26:B40"/>
@@ -2035,16 +2115,6 @@
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="C51:C54"/>
-    <mergeCell ref="A7:A24"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A59:A60"/>
@@ -2052,32 +2122,33 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B42:B54"/>
     <mergeCell ref="A42:A54"/>
+    <mergeCell ref="C39:C40"/>
   </mergeCells>
-  <conditionalFormatting sqref="F26:F40 F59:F1048576 F56:F57 F42:F54 F5:F24">
+  <conditionalFormatting sqref="G26:G40 G59:G1048576 G56:G57 G42:G54 G5:G24">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pending">
-      <formula>NOT(ISERROR(SEARCH("Pending",F5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pending",G5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",F5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",G5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Delayed">
-      <formula>NOT(ISERROR(SEARCH("Delayed",F5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Delayed",G5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="On Schedule">
-      <formula>NOT(ISERROR(SEARCH("On Schedule",F5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("On Schedule",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59:F1048576 F56:F57 F42:F54 F5:F40">
+  <conditionalFormatting sqref="G59:G1048576 G56:G57 G42:G54 G5:G40">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",F5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Completed",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F59:F1048576 F56:F57 F42:F54 F5:F40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59:G1048576 G56:G57 G42:G54 G5:G40">
       <formula1>Status2</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Scheduling/Project Schedule.xlsx
+++ b/Project Scheduling/Project Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\ESE\3\Project\Robot-Explorer-EREEEL-Documentation-\Project Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\ESE\3\Project\Robot-Documentation-\Project Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
   <si>
     <t>Week Ending</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalize Specification for proof of concept </t>
   </si>
   <si>
     <t>Finalize selection of sensors and start technical reports on assigned sensors</t>
@@ -387,6 +384,36 @@
   </si>
   <si>
     <t>3. (a) Simulate communication using real term.                             (b) Communicate between the Pi and the Axman.</t>
+  </si>
+  <si>
+    <t>Finalize Specification for proof of concept  (This task will be completed throughout the duration of the project)</t>
+  </si>
+  <si>
+    <t>Ovi and Kevin</t>
+  </si>
+  <si>
+    <t>Finalize RS-232 communication between Raspberry Pi and the platform controller</t>
+  </si>
+  <si>
+    <t>1. Ensure that communications are reliable and quick.</t>
+  </si>
+  <si>
+    <t>2. Ready for integration next week?</t>
+  </si>
+  <si>
+    <t>Catch up delayed primary tasks for last previous weeks:</t>
+  </si>
+  <si>
+    <t>1. RS-232 Communication (Pi -&gt; Platform)</t>
+  </si>
+  <si>
+    <t>2. Get Encoders finished and integrated</t>
+  </si>
+  <si>
+    <t>2. Start PID Control</t>
+  </si>
+  <si>
+    <t>PID Control</t>
   </si>
 </sst>
 </file>
@@ -593,7 +620,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -607,9 +634,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -619,18 +643,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -663,12 +681,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3"/>
@@ -687,9 +699,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,15 +728,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -744,34 +789,49 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -781,7 +841,57 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBA7A7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
@@ -1127,28 +1237,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>79</v>
+      <c r="A1" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1158,936 +1268,1119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="4" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="44" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="71" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="25" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
+        <v>42650</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="48"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="48">
+        <v>42657</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="48"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="48"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="48"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-    </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="F35" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="F37" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="48"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="48"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59">
+        <v>42664</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="53">
-        <v>42650</v>
-      </c>
-      <c r="B7" s="46" t="s">
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="59"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="62"/>
+      <c r="G43" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="59"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="59"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="62"/>
+      <c r="G45" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="59"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="59"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="59"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="59"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="59"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="61"/>
+      <c r="G50" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="59"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="G51" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="59"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="60"/>
+      <c r="G52" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="59"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="60"/>
+      <c r="G53" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="59"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="60"/>
+      <c r="G54" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="60"/>
+      <c r="G56" s="63"/>
+    </row>
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="40"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="59">
+        <v>42671</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="65"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="59"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="30" t="s">
+      <c r="D62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="70"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="40"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="30" t="s">
+    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="40"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="24" t="s">
+    <row r="65" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="40"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="59">
+        <v>42678</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="D68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="65"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="30" t="s">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="59"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="70"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="53">
-        <v>42657</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47">
-        <v>42664</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="47">
-        <v>42671</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="47">
-        <v>42678</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="46">
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B42:B54"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="B26:B40"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
@@ -2104,47 +2397,47 @@
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A26:A40"/>
-    <mergeCell ref="B26:B40"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B42:B54"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="C39:C40"/>
   </mergeCells>
-  <conditionalFormatting sqref="G26:G40 G59:G1048576 G56:G57 G42:G54 G5:G24">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pending">
+  <conditionalFormatting sqref="G26:G40 G68:G1048576 G61:G62 G42:G55 G5:G24 G57:G59">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="On Schedule">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="On Schedule">
       <formula>NOT(ISERROR(SEARCH("On Schedule",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G1048576 G56:G57 G42:G54 G5:G40">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Completed">
+  <conditionalFormatting sqref="G68:G1048576 G61:G62 G42:G55 G5:G40 G57:G59">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G66">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pending">
+      <formula>NOT(ISERROR(SEARCH("Pending",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Delayed">
+      <formula>NOT(ISERROR(SEARCH("Delayed",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="On Schedule">
+      <formula>NOT(ISERROR(SEARCH("On Schedule",G63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G66">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",G63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59:G1048576 G56:G57 G42:G54 G5:G40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68:G1048576 G57:G59 G5:G40 G42:G55 G61:G66">
       <formula1>Status2</formula1>
     </dataValidation>
   </dataValidations>
